--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ignac\OneDrive\Escritorio\Nueva carpeta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ignac\OneDrive\Documents\GitHub\lista.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DA0E53E-29C8-4D1A-B825-42946E0ED352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264715B7-4F83-4E68-9993-B99B81CD63FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5910" yWindow="4185" windowWidth="21600" windowHeight="11385" xr2:uid="{8D2BEDBA-1C23-448C-9F38-F52D64B394CB}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{8D2BEDBA-1C23-448C-9F38-F52D64B394CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -429,7 +429,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
